--- a/data/trans_camb/P12A1_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_1_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 4,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 11,45</t>
+          <t>-7,7; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 2,72</t>
+          <t>-7,7; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 3,28</t>
+          <t>-7,7; 0,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 0,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 0,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-59,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,5%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-58,01%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-52,86%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,22</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 32,37</t>
+          <t>0,05; 20,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 46,67</t>
+          <t>0,06; 22,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 3,87</t>
+          <t>0,02; 27,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 5,77</t>
+          <t>-3,2; 1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 20,79</t>
+          <t>-2,68; 2,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 30,81</t>
+          <t>-2,34; 2,87</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 9,59</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 11,07</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 14,39</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>458,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,46%</t>
+          <t>499,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-58,95%</t>
+          <t>571,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-42,49%</t>
+          <t>-36,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>-4,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>167,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>209,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>254,14%</t>
         </is>
       </c>
     </row>
@@ -871,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-95,66; 303,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,69; 444,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,17 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 215,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,59; 211,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,27; 313,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-53,42; 1309,06</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-46,41; 1481,32</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-25,12; 3104,87</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,65</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-37,09; -4,31</t>
+          <t>-6,4; -0,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 9,69</t>
+          <t>-4,73; 1,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 25,33</t>
+          <t>-3,95; 2,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 22,94</t>
+          <t>-3,68; 3,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 6,53</t>
+          <t>-3,4; 3,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 13,46</t>
+          <t>-5,14; 0,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 1,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 1,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 0,71</t>
         </is>
       </c>
     </row>
@@ -994,27 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-57,0%</t>
+          <t>-59,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>-30,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-49,32%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>-73,62%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-48,57%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-27,47%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-52,32%</t>
         </is>
       </c>
     </row>
@@ -1047,19 +1243,34 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 176,0</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,28; 262,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 156,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-88,34; 239,41</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 168,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 19,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 32,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 6,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 9,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 20,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-40,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-92,81; 228,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 348,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,51; 89,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-75,4; 151,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,26; 109,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,51; 214,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 10,93</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 12,75</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 14,55</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 1,19</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 1,59</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 0,78</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,85</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 5,79</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 5,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>129,91%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>176,19%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>214,33%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-28,04%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-14,26%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-40,07%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>37,13%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>66,18%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>67,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-48,68; 3669,01</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-84,87; 165,46</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-79,37; 184,06</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-87,76; 114,14</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-52,44; 412,56</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-38,43; 522,68</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-46,36; 485,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
